--- a/documents/Published/Ring Chart/RingChartbyMAQSoftwareChecklist.xlsx
+++ b/documents/Published/Ring Chart/RingChartbyMAQSoftwareChecklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PowerBI-CustomVisuals\documents\Published\Ring Chart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAQUser\source\repos\PowerBI-visuals\documents\Published\Ring Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CEEC5B-7D35-4346-A5DA-E7AD7DE130CB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4401C96-32C5-43F0-A316-5CE41E80F808}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15285" windowHeight="5310" xr2:uid="{298230A1-4D6D-45FE-9FCF-FFB948C6A0D6}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="134">
   <si>
     <r>
       <t>#</t>
@@ -565,6 +565,9 @@
 3. Arc for negative values are poped outside the normal arc.
 4. Arc for negative values are dropped inside the normal arc.
 5. Arc for negative values are filled in line pattern.</t>
+  </si>
+  <si>
+    <t>Is report tooltip working fine?</t>
   </si>
 </sst>
 </file>
@@ -642,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -685,8 +688,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -694,9 +697,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1013,7 +1020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BD6B43-E3C6-4B92-AF1B-22928F3D0975}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -1055,7 +1062,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C3" t="s">
@@ -1067,7 +1074,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
-      <c r="B4" s="16"/>
+      <c r="B4" s="19"/>
       <c r="C4" t="s">
         <v>38</v>
       </c>
@@ -1451,16 +1458,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1468,10 +1475,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFEEF6DE-50B2-427D-B032-723E8937E621}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,29 +1664,29 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="20">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="20"/>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -1693,41 +1700,41 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+      <c r="A21" s="20">
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="20" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="20"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="20"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="19"/>
+      <c r="C24" s="20"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="19"/>
+      <c r="C25" s="20"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -1748,6 +1755,17 @@
         <v>27</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <v>21</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1759,5 +1777,6 @@
     <mergeCell ref="C21:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>